--- a/excel/finished/焦化/CK67-化产-制冷循环水报表（日）.xlsx
+++ b/excel/finished/焦化/CK67-化产-制冷循环水报表（日）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemao\AppData\Local\Temp\Rar$DIa0.688\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E65D260-56F7-4D84-B557-C5C522329EB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9678366-6EE2-46EF-98BE-EABFB63105E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -662,7 +662,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1243,7 +1243,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1256,7 +1256,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1287,53 +1287,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1347,29 +1302,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1380,10 +1317,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1398,12 +1335,950 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="258">
+    <dxf>
+      <fill>
+        <patternFill patternType="darkDown"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkDown"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkDown"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="solid"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="solid"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="solid"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="solid"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="solid"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="darkDown"/>
@@ -2059,8 +2934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2090,50 +2965,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
     </row>
     <row r="2" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
@@ -2141,12 +3016,12 @@
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="26" t="str">
+      <c r="E2" s="58" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="12"/>
       <c r="L2" s="13"/>
       <c r="M2" s="12"/>
@@ -2170,769 +3045,769 @@
       <c r="AI2" s="12"/>
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
-      <c r="AL2" s="27" t="s">
+      <c r="AL2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
       <c r="AP2" s="22"/>
       <c r="AQ2" s="22"/>
     </row>
     <row r="3" spans="1:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49" t="s">
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49" t="s">
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="48" t="s">
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AD3" s="48" t="s">
+      <c r="AD3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="48" t="s">
+      <c r="AE3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" s="49" t="s">
+      <c r="AF3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="36"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="61"/>
+      <c r="AR3" s="41"/>
     </row>
     <row r="4" spans="1:44" ht="44.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="39" t="s">
+      <c r="E4" s="50"/>
+      <c r="F4" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="39" t="s">
+      <c r="O4" s="50"/>
+      <c r="P4" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="39" t="s">
+      <c r="Q4" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="39" t="s">
+      <c r="S4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="39" t="s">
+      <c r="T4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="40" t="s">
+      <c r="U4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="40"/>
-      <c r="W4" s="39" t="s">
+      <c r="V4" s="50"/>
+      <c r="W4" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="39" t="s">
+      <c r="X4" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" s="39" t="s">
+      <c r="Y4" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="Z4" s="39" t="s">
+      <c r="Z4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AA4" s="39" t="s">
+      <c r="AA4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="AB4" s="39" t="s">
+      <c r="AB4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="40" t="s">
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40" t="s">
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40" t="s">
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40" t="s">
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="AP4" s="40"/>
+      <c r="AP4" s="50"/>
       <c r="AQ4" s="52"/>
-      <c r="AR4" s="36"/>
+      <c r="AR4" s="41"/>
     </row>
     <row r="5" spans="1:44" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="41" t="s">
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="41" t="s">
+      <c r="O5" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="41" t="s">
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="41" t="s">
+      <c r="V5" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="42" t="s">
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="AG5" s="42" t="s">
+      <c r="AG5" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AH5" s="42" t="s">
+      <c r="AH5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AI5" s="42" t="s">
+      <c r="AI5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="AJ5" s="42" t="s">
+      <c r="AJ5" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AK5" s="42" t="s">
+      <c r="AK5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AL5" s="42" t="s">
+      <c r="AL5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="AM5" s="42" t="s">
+      <c r="AM5" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AN5" s="42" t="s">
+      <c r="AN5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AO5" s="42" t="s">
+      <c r="AO5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="AP5" s="42" t="s">
+      <c r="AP5" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AQ5" s="53" t="s">
+      <c r="AQ5" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AR5" s="36"/>
+      <c r="AR5" s="41"/>
     </row>
     <row r="6" spans="1:44" ht="45.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="43" t="s">
+      <c r="K6" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="43" t="s">
+      <c r="L6" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="M6" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="43" t="s">
+      <c r="O6" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="43" t="s">
+      <c r="P6" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="43" t="s">
+      <c r="Q6" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="R6" s="43" t="s">
+      <c r="R6" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="S6" s="43" t="s">
+      <c r="S6" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="T6" s="43" t="s">
+      <c r="T6" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="U6" s="43" t="s">
+      <c r="U6" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="V6" s="43" t="s">
+      <c r="V6" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="W6" s="43" t="s">
+      <c r="W6" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="X6" s="43" t="s">
+      <c r="X6" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="Y6" s="43" t="s">
+      <c r="Y6" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="Z6" s="43" t="s">
+      <c r="Z6" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="AA6" s="43" t="s">
+      <c r="AA6" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AB6" s="43" t="s">
+      <c r="AB6" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="AC6" s="43" t="s">
+      <c r="AC6" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="AD6" s="43" t="s">
+      <c r="AD6" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="AE6" s="43" t="s">
+      <c r="AE6" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="AF6" s="44" t="s">
+      <c r="AF6" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AG6" s="44" t="s">
+      <c r="AG6" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AH6" s="44" t="s">
+      <c r="AH6" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AI6" s="44" t="s">
+      <c r="AI6" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="AJ6" s="44" t="s">
+      <c r="AJ6" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="AK6" s="44" t="s">
+      <c r="AK6" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="AL6" s="44" t="s">
+      <c r="AL6" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="AM6" s="44" t="s">
+      <c r="AM6" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="AN6" s="44" t="s">
+      <c r="AN6" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="AO6" s="44" t="s">
+      <c r="AO6" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="AP6" s="44" t="s">
+      <c r="AP6" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AQ6" s="55" t="s">
+      <c r="AQ6" s="34" t="s">
         <v>78</v>
       </c>
       <c r="AR6" s="23"/>
     </row>
     <row r="7" spans="1:44" s="9" customFormat="1" ht="45.65" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="45">
+      <c r="B7" s="35"/>
+      <c r="C7" s="30">
         <v>0.7</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="30">
         <v>50</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="30">
         <v>50</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="30">
         <v>3500</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="30">
         <v>3500</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="30">
         <v>200</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="30">
         <v>55</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="30">
         <v>32</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="30">
         <v>0.65</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L7" s="30">
         <v>3000</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="30">
         <v>50</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N7" s="30">
         <v>50</v>
       </c>
-      <c r="O7" s="45">
+      <c r="O7" s="30">
         <v>50</v>
       </c>
-      <c r="P7" s="45">
+      <c r="P7" s="30">
         <v>3500</v>
       </c>
-      <c r="Q7" s="45">
+      <c r="Q7" s="30">
         <v>3500</v>
       </c>
-      <c r="R7" s="45">
+      <c r="R7" s="30">
         <v>32</v>
       </c>
-      <c r="S7" s="45">
+      <c r="S7" s="30">
         <v>0.4</v>
       </c>
-      <c r="T7" s="45">
+      <c r="T7" s="30">
         <v>1800</v>
       </c>
-      <c r="U7" s="45">
+      <c r="U7" s="30">
         <v>50</v>
       </c>
-      <c r="V7" s="45">
+      <c r="V7" s="30">
         <v>50</v>
       </c>
-      <c r="W7" s="45">
+      <c r="W7" s="30">
         <v>20</v>
       </c>
-      <c r="X7" s="45">
+      <c r="X7" s="30">
         <v>4.5</v>
       </c>
-      <c r="Y7" s="45">
+      <c r="Y7" s="30">
         <v>30</v>
       </c>
-      <c r="Z7" s="45">
+      <c r="Z7" s="30">
         <v>20</v>
       </c>
-      <c r="AA7" s="45">
+      <c r="AA7" s="30">
         <v>0.65</v>
       </c>
-      <c r="AB7" s="45">
+      <c r="AB7" s="30">
         <v>1300</v>
       </c>
-      <c r="AC7" s="45">
+      <c r="AC7" s="30">
         <v>5.5</v>
       </c>
-      <c r="AD7" s="45">
+      <c r="AD7" s="30">
         <v>180</v>
       </c>
-      <c r="AE7" s="45">
+      <c r="AE7" s="30">
         <v>180</v>
       </c>
-      <c r="AF7" s="46">
+      <c r="AF7" s="31">
         <v>800</v>
       </c>
-      <c r="AG7" s="46">
+      <c r="AG7" s="31">
         <v>650</v>
       </c>
-      <c r="AH7" s="46">
+      <c r="AH7" s="31">
         <v>8</v>
       </c>
-      <c r="AI7" s="46">
+      <c r="AI7" s="31">
         <v>800</v>
       </c>
-      <c r="AJ7" s="46">
+      <c r="AJ7" s="31">
         <v>650</v>
       </c>
-      <c r="AK7" s="46">
+      <c r="AK7" s="31">
         <v>8</v>
       </c>
-      <c r="AL7" s="46">
+      <c r="AL7" s="31">
         <v>800</v>
       </c>
-      <c r="AM7" s="46">
+      <c r="AM7" s="31">
         <v>650</v>
       </c>
-      <c r="AN7" s="46">
+      <c r="AN7" s="31">
         <v>8</v>
       </c>
-      <c r="AO7" s="46">
+      <c r="AO7" s="31">
         <v>800</v>
       </c>
-      <c r="AP7" s="46">
+      <c r="AP7" s="31">
         <v>650</v>
       </c>
-      <c r="AQ7" s="57">
+      <c r="AQ7" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:44" s="9" customFormat="1" ht="45.65" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="45">
+      <c r="B8" s="35"/>
+      <c r="C8" s="30">
         <v>0.3</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="30">
         <v>10</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="30">
         <v>10</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="30">
         <v>2500</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="30">
         <v>2500</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="30">
         <v>60</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="30">
         <v>35</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J8" s="30">
         <v>25</v>
       </c>
-      <c r="K8" s="45">
+      <c r="K8" s="30">
         <v>0.3</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="30">
         <v>900</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="30">
         <v>0</v>
       </c>
-      <c r="N8" s="45">
+      <c r="N8" s="30">
         <v>10</v>
       </c>
-      <c r="O8" s="45">
+      <c r="O8" s="30">
         <v>10</v>
       </c>
-      <c r="P8" s="45">
+      <c r="P8" s="30">
         <v>2500</v>
       </c>
-      <c r="Q8" s="45">
+      <c r="Q8" s="30">
         <v>2500</v>
       </c>
-      <c r="R8" s="45">
+      <c r="R8" s="30">
         <v>25</v>
       </c>
-      <c r="S8" s="45">
+      <c r="S8" s="30">
         <v>0.15</v>
       </c>
-      <c r="T8" s="45">
+      <c r="T8" s="30">
         <v>700</v>
       </c>
-      <c r="U8" s="45">
+      <c r="U8" s="30">
         <v>10</v>
       </c>
-      <c r="V8" s="45">
+      <c r="V8" s="30">
         <v>10</v>
       </c>
-      <c r="W8" s="45">
+      <c r="W8" s="30">
         <v>0</v>
       </c>
-      <c r="X8" s="45">
+      <c r="X8" s="30">
         <v>3.5</v>
       </c>
-      <c r="Y8" s="45">
+      <c r="Y8" s="30">
         <v>20</v>
       </c>
-      <c r="Z8" s="45">
+      <c r="Z8" s="30">
         <v>15</v>
       </c>
-      <c r="AA8" s="45">
+      <c r="AA8" s="30">
         <v>0.3</v>
       </c>
-      <c r="AB8" s="45">
+      <c r="AB8" s="30">
         <v>600</v>
       </c>
-      <c r="AC8" s="45">
+      <c r="AC8" s="30">
         <v>0.3</v>
       </c>
-      <c r="AD8" s="45">
+      <c r="AD8" s="30">
         <v>140</v>
       </c>
-      <c r="AE8" s="45">
+      <c r="AE8" s="30">
         <v>140</v>
       </c>
-      <c r="AF8" s="46">
+      <c r="AF8" s="31">
         <v>400</v>
       </c>
-      <c r="AG8" s="46">
+      <c r="AG8" s="31">
         <v>300</v>
       </c>
-      <c r="AH8" s="46">
+      <c r="AH8" s="31">
         <v>-9999</v>
       </c>
-      <c r="AI8" s="46">
+      <c r="AI8" s="31">
         <v>400</v>
       </c>
-      <c r="AJ8" s="46">
+      <c r="AJ8" s="31">
         <v>300</v>
       </c>
-      <c r="AK8" s="46">
+      <c r="AK8" s="31">
         <v>-9999</v>
       </c>
-      <c r="AL8" s="46">
+      <c r="AL8" s="31">
         <v>400</v>
       </c>
-      <c r="AM8" s="46">
+      <c r="AM8" s="31">
         <v>300</v>
       </c>
-      <c r="AN8" s="46">
+      <c r="AN8" s="31">
         <v>-9999</v>
       </c>
-      <c r="AO8" s="46">
+      <c r="AO8" s="31">
         <v>400</v>
       </c>
-      <c r="AP8" s="46">
+      <c r="AP8" s="31">
         <v>300</v>
       </c>
-      <c r="AQ8" s="57">
+      <c r="AQ8" s="36">
         <v>-9999</v>
       </c>
     </row>
     <row r="9" spans="1:44" s="10" customFormat="1" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="J9" s="60" t="s">
+      <c r="J9" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="60" t="s">
+      <c r="K9" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="60" t="s">
+      <c r="L9" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="M9" s="60" t="s">
+      <c r="M9" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="N9" s="60" t="s">
+      <c r="N9" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="60" t="s">
+      <c r="O9" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="P9" s="60" t="s">
+      <c r="P9" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="Q9" s="60" t="s">
+      <c r="Q9" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="R9" s="60" t="s">
+      <c r="R9" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="S9" s="60" t="s">
+      <c r="S9" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="T9" s="60" t="s">
+      <c r="T9" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="U9" s="60" t="s">
+      <c r="U9" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="V9" s="60" t="s">
+      <c r="V9" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="W9" s="60" t="s">
+      <c r="W9" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="X9" s="60" t="s">
+      <c r="X9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="Y9" s="60" t="s">
+      <c r="Y9" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="Z9" s="60" t="s">
+      <c r="Z9" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AA9" s="60" t="s">
+      <c r="AA9" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="AB9" s="60" t="s">
+      <c r="AB9" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="AC9" s="60" t="s">
+      <c r="AC9" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="AD9" s="60" t="s">
+      <c r="AD9" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="AE9" s="60" t="s">
+      <c r="AE9" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="AF9" s="60" t="s">
+      <c r="AF9" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="AG9" s="60" t="s">
+      <c r="AG9" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="AH9" s="60" t="s">
+      <c r="AH9" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="AI9" s="60" t="s">
+      <c r="AI9" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="AJ9" s="60" t="s">
+      <c r="AJ9" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="AK9" s="60" t="s">
+      <c r="AK9" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="AL9" s="60" t="s">
+      <c r="AL9" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="AM9" s="60" t="s">
+      <c r="AM9" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="AN9" s="60" t="s">
+      <c r="AN9" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="AO9" s="60" t="s">
+      <c r="AO9" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="AP9" s="60" t="s">
+      <c r="AP9" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="AQ9" s="61" t="s">
+      <c r="AQ9" s="40" t="s">
         <v>101</v>
       </c>
       <c r="AR9" s="24"/>
@@ -2941,167 +3816,167 @@
       <c r="B10" s="16">
         <v>0</v>
       </c>
-      <c r="C10" s="38" t="str">
+      <c r="C10" s="25" t="str">
         <f>IF(_zhileng_day_hour!A2="","",_zhileng_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D10" s="38" t="str">
+      <c r="D10" s="25" t="str">
         <f>IF(_zhileng_day_hour!B2="","",_zhileng_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E10" s="38" t="str">
+      <c r="E10" s="25" t="str">
         <f>IF(_zhileng_day_hour!C2="","",_zhileng_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F10" s="38" t="str">
+      <c r="F10" s="25" t="str">
         <f>IF(_zhileng_day_hour!D2="","",_zhileng_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G10" s="38" t="str">
+      <c r="G10" s="25" t="str">
         <f>IF(_zhileng_day_hour!E2="","",_zhileng_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H10" s="38" t="str">
+      <c r="H10" s="25" t="str">
         <f>IF(_zhileng_day_hour!F2="","",_zhileng_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I10" s="38" t="str">
+      <c r="I10" s="25" t="str">
         <f>IF(_zhileng_day_hour!G2="","",_zhileng_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J10" s="38" t="str">
+      <c r="J10" s="25" t="str">
         <f>IF(_zhileng_day_hour!H2="","",_zhileng_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K10" s="38" t="str">
+      <c r="K10" s="25" t="str">
         <f>IF(_zhileng_day_hour!I2="","",_zhileng_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L10" s="38" t="str">
+      <c r="L10" s="25" t="str">
         <f>IF(_zhileng_day_hour!J2="","",_zhileng_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M10" s="38" t="str">
+      <c r="M10" s="25" t="str">
         <f>IF(_zhileng_day_hour!K2="","",_zhileng_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N10" s="38" t="str">
+      <c r="N10" s="25" t="str">
         <f>IF(_zhileng_day_hour!L2="","",_zhileng_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O10" s="38" t="str">
+      <c r="O10" s="25" t="str">
         <f>IF(_zhileng_day_hour!M2="","",_zhileng_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P10" s="38" t="str">
+      <c r="P10" s="25" t="str">
         <f>IF(_zhileng_day_hour!N2="","",_zhileng_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q10" s="38" t="str">
+      <c r="Q10" s="25" t="str">
         <f>IF(_zhileng_day_hour!O2="","",_zhileng_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R10" s="38" t="str">
+      <c r="R10" s="25" t="str">
         <f>IF(_zhileng_day_hour!P2="","",_zhileng_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S10" s="38" t="str">
+      <c r="S10" s="25" t="str">
         <f>IF(_zhileng_day_hour!Q2="","",_zhileng_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="T10" s="38" t="str">
+      <c r="T10" s="25" t="str">
         <f>IF(_zhileng_day_hour!R2="","",_zhileng_day_hour!R2)</f>
         <v/>
       </c>
-      <c r="U10" s="38" t="str">
+      <c r="U10" s="25" t="str">
         <f>IF(_zhileng_day_hour!S2="","",_zhileng_day_hour!S2)</f>
         <v/>
       </c>
-      <c r="V10" s="38" t="str">
+      <c r="V10" s="25" t="str">
         <f>IF(_zhileng_day_hour!T2="","",_zhileng_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="W10" s="38" t="str">
+      <c r="W10" s="25" t="str">
         <f>IF(_zhileng_day_hour!U2="","",_zhileng_day_hour!U2)</f>
         <v/>
       </c>
-      <c r="X10" s="38" t="str">
+      <c r="X10" s="25" t="str">
         <f>IF(_zhileng_day_hour!V2="","",_zhileng_day_hour!V2/1000)</f>
         <v/>
       </c>
-      <c r="Y10" s="38" t="str">
+      <c r="Y10" s="25" t="str">
         <f>IF(_zhileng_day_hour!W2="","",_zhileng_day_hour!W2)</f>
         <v/>
       </c>
-      <c r="Z10" s="38" t="str">
+      <c r="Z10" s="25" t="str">
         <f>IF(_zhileng_day_hour!X2="","",_zhileng_day_hour!X2)</f>
         <v/>
       </c>
-      <c r="AA10" s="38" t="str">
+      <c r="AA10" s="25" t="str">
         <f>IF(_zhileng_day_hour!Y2="","",_zhileng_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="AB10" s="38" t="str">
+      <c r="AB10" s="25" t="str">
         <f>IF(_zhileng_day_hour!Z2="","",_zhileng_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="AC10" s="38" t="str">
+      <c r="AC10" s="25" t="str">
         <f>IF(_zhileng_day_hour!AA2="","",_zhileng_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="AD10" s="38" t="str">
+      <c r="AD10" s="25" t="str">
         <f>IF(_zhileng_day_hour!AB2="","",_zhileng_day_hour!AB2)</f>
         <v/>
       </c>
-      <c r="AE10" s="38" t="str">
+      <c r="AE10" s="25" t="str">
         <f>IF(_zhileng_day_hour!AC2="","",_zhileng_day_hour!AC2)</f>
         <v/>
       </c>
-      <c r="AF10" s="38" t="str">
+      <c r="AF10" s="25" t="str">
         <f>IF(_zhileng_day_hour!AD2="","",_zhileng_day_hour!AD2)</f>
         <v/>
       </c>
-      <c r="AG10" s="38" t="str">
+      <c r="AG10" s="25" t="str">
         <f>IF(_zhileng_day_hour!AE2="","",_zhileng_day_hour!AE2)</f>
         <v/>
       </c>
-      <c r="AH10" s="38" t="str">
+      <c r="AH10" s="25" t="str">
         <f>IF(_zhileng_day_hour!AF2="","",_zhileng_day_hour!AF2)</f>
         <v/>
       </c>
-      <c r="AI10" s="38" t="str">
+      <c r="AI10" s="25" t="str">
         <f>IF(_zhileng_day_hour!AG2="","",_zhileng_day_hour!AG2)</f>
         <v/>
       </c>
-      <c r="AJ10" s="38" t="str">
+      <c r="AJ10" s="25" t="str">
         <f>IF(_zhileng_day_hour!AH2="","",_zhileng_day_hour!AH2)</f>
         <v/>
       </c>
-      <c r="AK10" s="38" t="str">
+      <c r="AK10" s="25" t="str">
         <f>IF(_zhileng_day_hour!AI2="","",_zhileng_day_hour!AI2)</f>
         <v/>
       </c>
-      <c r="AL10" s="38" t="str">
+      <c r="AL10" s="25" t="str">
         <f>IF(_zhileng_day_hour!AJ2="","",_zhileng_day_hour!AJ2)</f>
         <v/>
       </c>
-      <c r="AM10" s="38" t="str">
+      <c r="AM10" s="25" t="str">
         <f>IF(_zhileng_day_hour!AK2="","",_zhileng_day_hour!AK2)</f>
         <v/>
       </c>
-      <c r="AN10" s="38" t="str">
+      <c r="AN10" s="25" t="str">
         <f>IF(_zhileng_day_hour!AL2="","",_zhileng_day_hour!AL2)</f>
         <v/>
       </c>
-      <c r="AO10" s="38" t="str">
+      <c r="AO10" s="25" t="str">
         <f>IF(_zhileng_day_hour!AM2="","",_zhileng_day_hour!AM2)</f>
         <v/>
       </c>
-      <c r="AP10" s="38" t="str">
+      <c r="AP10" s="25" t="str">
         <f>IF(_zhileng_day_hour!AN2="","",_zhileng_day_hour!AN2)</f>
         <v/>
       </c>
-      <c r="AQ10" s="38" t="str">
+      <c r="AQ10" s="25" t="str">
         <f>IF(_zhileng_day_hour!AO2="","",_zhileng_day_hour!AO2)</f>
         <v/>
       </c>
@@ -7670,107 +8545,137 @@
       </c>
     </row>
     <row r="38" spans="2:43" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="28" t="s">
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="29"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="30"/>
-      <c r="AD38" s="31" t="s">
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="54"/>
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="54"/>
+      <c r="AB38" s="54"/>
+      <c r="AC38" s="55"/>
+      <c r="AD38" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="AE38" s="29"/>
-      <c r="AF38" s="29"/>
-      <c r="AG38" s="29"/>
-      <c r="AH38" s="29"/>
-      <c r="AI38" s="29"/>
-      <c r="AJ38" s="29"/>
-      <c r="AK38" s="29"/>
-      <c r="AL38" s="29"/>
-      <c r="AM38" s="29"/>
-      <c r="AN38" s="29"/>
-      <c r="AO38" s="29"/>
-      <c r="AP38" s="29"/>
-      <c r="AQ38" s="30"/>
+      <c r="AE38" s="54"/>
+      <c r="AF38" s="54"/>
+      <c r="AG38" s="54"/>
+      <c r="AH38" s="54"/>
+      <c r="AI38" s="54"/>
+      <c r="AJ38" s="54"/>
+      <c r="AK38" s="54"/>
+      <c r="AL38" s="54"/>
+      <c r="AM38" s="54"/>
+      <c r="AN38" s="54"/>
+      <c r="AO38" s="54"/>
+      <c r="AP38" s="54"/>
+      <c r="AQ38" s="55"/>
     </row>
     <row r="39" spans="2:43" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="32" t="s">
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="33"/>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="32" t="s">
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="43"/>
+      <c r="AA39" s="43"/>
+      <c r="AB39" s="43"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="AE39" s="33"/>
-      <c r="AF39" s="33"/>
-      <c r="AG39" s="33"/>
-      <c r="AH39" s="33"/>
-      <c r="AI39" s="33"/>
-      <c r="AJ39" s="33"/>
-      <c r="AK39" s="33"/>
-      <c r="AL39" s="33"/>
-      <c r="AM39" s="33"/>
-      <c r="AN39" s="33"/>
-      <c r="AO39" s="33"/>
-      <c r="AP39" s="33"/>
-      <c r="AQ39" s="34"/>
+      <c r="AE39" s="43"/>
+      <c r="AF39" s="43"/>
+      <c r="AG39" s="43"/>
+      <c r="AH39" s="43"/>
+      <c r="AI39" s="43"/>
+      <c r="AJ39" s="43"/>
+      <c r="AK39" s="43"/>
+      <c r="AL39" s="43"/>
+      <c r="AM39" s="43"/>
+      <c r="AN39" s="43"/>
+      <c r="AO39" s="43"/>
+      <c r="AP39" s="43"/>
+      <c r="AQ39" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AE3:AE5"/>
+    <mergeCell ref="B1:AQ1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="U3:AB3"/>
+    <mergeCell ref="AF3:AQ3"/>
+    <mergeCell ref="AD3:AD5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="AL4:AN4"/>
+    <mergeCell ref="AO4:AQ4"/>
+    <mergeCell ref="B38:O38"/>
+    <mergeCell ref="P38:AC38"/>
+    <mergeCell ref="AD38:AQ38"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC3:AC5"/>
     <mergeCell ref="AR3:AR5"/>
     <mergeCell ref="B39:O39"/>
     <mergeCell ref="P39:AC39"/>
@@ -7787,369 +8692,339 @@
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="AL4:AN4"/>
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="B38:O38"/>
-    <mergeCell ref="P38:AC38"/>
-    <mergeCell ref="AD38:AQ38"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC3:AC5"/>
-    <mergeCell ref="AD3:AD5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AE3:AE5"/>
-    <mergeCell ref="B1:AQ1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="AL2:AO2"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="U3:AB3"/>
-    <mergeCell ref="AF3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="C10:C37">
-    <cfRule type="cellIs" dxfId="85" priority="166" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="166" operator="greaterThan">
       <formula>C$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="165" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="165" operator="lessThan">
       <formula>C$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D37">
-    <cfRule type="cellIs" dxfId="83" priority="84" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="169" priority="84" operator="greaterThan">
       <formula>D$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="83" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="83" operator="lessThan">
       <formula>D$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E37">
-    <cfRule type="cellIs" dxfId="81" priority="82" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="167" priority="82" operator="greaterThan">
       <formula>E$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="81" operator="lessThan">
       <formula>E$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F37">
-    <cfRule type="cellIs" dxfId="79" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="80" operator="greaterThan">
       <formula>F$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="79" operator="lessThan">
       <formula>F$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:G37">
-    <cfRule type="cellIs" dxfId="77" priority="78" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="163" priority="78" operator="greaterThan">
       <formula>G$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="77" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="77" operator="lessThan">
       <formula>G$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H37">
-    <cfRule type="cellIs" dxfId="75" priority="76" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="76" operator="greaterThan">
       <formula>H$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="75" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="75" operator="lessThan">
       <formula>H$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I37">
-    <cfRule type="cellIs" dxfId="73" priority="74" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="159" priority="74" operator="greaterThan">
       <formula>I$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="73" operator="lessThan">
       <formula>I$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J37">
-    <cfRule type="cellIs" dxfId="71" priority="72" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="157" priority="72" operator="greaterThan">
       <formula>J$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="71" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="71" operator="lessThan">
       <formula>J$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K37">
-    <cfRule type="cellIs" dxfId="69" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="70" operator="greaterThan">
       <formula>K$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="69" operator="lessThan">
       <formula>K$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:L37">
-    <cfRule type="cellIs" dxfId="67" priority="68" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="68" operator="greaterThan">
       <formula>L$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="67" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="67" operator="lessThan">
       <formula>L$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:M37">
-    <cfRule type="cellIs" dxfId="65" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="66" operator="greaterThan">
       <formula>M$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="65" operator="lessThan">
       <formula>M$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:N37">
-    <cfRule type="cellIs" dxfId="63" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="64" operator="greaterThan">
       <formula>N$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="63" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="63" operator="lessThan">
       <formula>N$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10:O37">
-    <cfRule type="cellIs" dxfId="61" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="62" operator="greaterThan">
       <formula>O$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="61" operator="lessThan">
       <formula>O$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:P37">
-    <cfRule type="cellIs" dxfId="59" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="145" priority="60" operator="greaterThan">
       <formula>P$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="59" operator="lessThan">
       <formula>P$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10:Q37">
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="143" priority="58" operator="greaterThan">
       <formula>Q$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="57" operator="lessThan">
       <formula>Q$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:R37">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="56" operator="greaterThan">
       <formula>R$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="55" operator="lessThan">
       <formula>R$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:S37">
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="54" operator="greaterThan">
       <formula>S$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="53" operator="lessThan">
       <formula>S$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10:T37">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="52" operator="greaterThan">
       <formula>T$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="51" operator="lessThan">
       <formula>T$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10:U37">
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="50" operator="greaterThan">
       <formula>U$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="49" operator="lessThan">
       <formula>U$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10:V37">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="48" operator="greaterThan">
       <formula>V$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="47" operator="lessThan">
       <formula>V$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10:W37">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="46" operator="greaterThan">
       <formula>W$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="45" operator="lessThan">
       <formula>W$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X10:X37">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="44" operator="greaterThan">
       <formula>X$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="43" operator="lessThan">
       <formula>X$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10:Y37">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="42" operator="greaterThan">
       <formula>Y$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="41" operator="lessThan">
       <formula>Y$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z10:Z37">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="40" operator="greaterThan">
       <formula>Z$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="39" operator="lessThan">
       <formula>Z$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA10:AA37">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="38" operator="greaterThan">
       <formula>AA$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="37" operator="lessThan">
       <formula>AA$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10:AB37">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="36" operator="greaterThan">
       <formula>AB$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="35" operator="lessThan">
       <formula>AB$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC10:AC37">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="34" operator="greaterThan">
       <formula>AC$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="33" operator="lessThan">
       <formula>AC$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD10:AD37">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="32" operator="greaterThan">
       <formula>AD$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="31" operator="lessThan">
       <formula>AD$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE10:AE37">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="30" operator="greaterThan">
       <formula>AE$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="29" operator="lessThan">
       <formula>AE$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF10:AF37">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="28" operator="greaterThan">
       <formula>AF$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="27" operator="lessThan">
       <formula>AF$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG10:AG37">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="26" operator="greaterThan">
       <formula>AG$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="25" operator="lessThan">
       <formula>AG$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH10:AH37">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="24" operator="greaterThan">
       <formula>AH$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="23" operator="lessThan">
       <formula>AH$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI10:AI37">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="22" operator="greaterThan">
       <formula>AI$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="21" operator="lessThan">
       <formula>AI$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ10:AJ37">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="20" operator="greaterThan">
       <formula>AJ$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="19" operator="lessThan">
       <formula>AJ$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK10:AK37">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="16" operator="greaterThan">
       <formula>AK$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="15" operator="lessThan">
       <formula>AK$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL10:AL37">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="18" operator="greaterThan">
       <formula>AL$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="17" operator="lessThan">
       <formula>AL$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM10:AM37">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="14" operator="greaterThan">
       <formula>AM$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="13" operator="lessThan">
       <formula>AM$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN10:AN37">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="12" operator="greaterThan">
       <formula>AN$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="11" operator="lessThan">
       <formula>AN$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO10:AO37">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="10" operator="greaterThan">
       <formula>AO$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="9" operator="lessThan">
       <formula>AO$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP10:AP37">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="8" operator="greaterThan">
       <formula>AP$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="7" operator="lessThan">
       <formula>AP$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ10:AQ37">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="6" operator="greaterThan">
       <formula>AQ$7+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="5" operator="lessThan">
       <formula>AQ$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions gridLines="1"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -8157,8 +9032,11 @@
           <x14:cfRule type="expression" priority="4" id="{B9E1165A-0C4D-43F8-9F04-49DDAE5C666D}">
             <xm:f>_zhileng_day_hour!$AD$2&lt;50</xm:f>
             <x14:dxf>
+              <font>
+                <strike/>
+              </font>
               <fill>
-                <patternFill patternType="darkDown"/>
+                <patternFill patternType="solid"/>
               </fill>
             </x14:dxf>
           </x14:cfRule>
@@ -8168,8 +9046,11 @@
           <x14:cfRule type="expression" priority="3" id="{FD4DDD31-7164-4600-A03D-2583444755FF}">
             <xm:f>_zhileng_day_hour!$AG$2&lt;50</xm:f>
             <x14:dxf>
+              <font>
+                <strike/>
+              </font>
               <fill>
-                <patternFill patternType="darkDown"/>
+                <patternFill patternType="solid"/>
               </fill>
             </x14:dxf>
           </x14:cfRule>
@@ -8179,8 +9060,11 @@
           <x14:cfRule type="expression" priority="2" id="{5C59D17A-3F71-40BE-BE8C-5F16F801F420}">
             <xm:f>_zhileng_day_hour!$AJ$2&lt;50</xm:f>
             <x14:dxf>
+              <font>
+                <strike/>
+              </font>
               <fill>
-                <patternFill patternType="darkDown"/>
+                <patternFill patternType="solid"/>
               </fill>
             </x14:dxf>
           </x14:cfRule>
@@ -8190,8 +9074,11 @@
           <x14:cfRule type="expression" priority="1" id="{6986001F-19D3-49D1-9662-057CE8284A56}">
             <xm:f>_zhileng_day_hour!$AM$2&lt;50</xm:f>
             <x14:dxf>
+              <font>
+                <strike/>
+              </font>
               <fill>
-                <patternFill patternType="darkDown"/>
+                <patternFill patternType="solid"/>
               </fill>
             </x14:dxf>
           </x14:cfRule>
